--- a/biology/Zoologie/Cryptophagidae/Cryptophagidae.xlsx
+++ b/biology/Zoologie/Cryptophagidae/Cryptophagidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cryptophagidae sont une famille d'insectes de l'ordre des coléoptères.
-Cette famille regroupe environ 600 espèces décrites et rattachées à deux sous-familles d'environ 60 genres au total[1].
+Cette famille regroupe environ 600 espèces décrites et rattachées à deux sous-familles d'environ 60 genres au total.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (30 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (30 août 2014) :
 genre Cryptophagus
 genre Henoticus
-Selon ITIS      (30 août 2014)[3] :
+Selon ITIS      (30 août 2014) :
 sous-famille Atomariinae LeConte, 1861
 sous-famille Cryptophaginae Kirby, 1826
-Selon NCBI  (30 août 2014)[4] :
+Selon NCBI  (30 août 2014) :
 genre Antherophagus
 Antherophagus nigricornis
 genre Atomaria
